--- a/模板.xlsx
+++ b/模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="4" r:id="rId1"/>
@@ -13,6 +13,15 @@
     <sheet name="工作量汇总" sheetId="3" r:id="rId4"/>
     <sheet name="Ref" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="版本">OFFSET(Ref!$G$3,0,0,COUNTA(Ref!$G$1:$G$255)-1)</definedName>
+    <definedName name="公告">OFFSET(Ref!$E$3,0,0,COUNTA(Ref!$E$1:$E$255)-1)</definedName>
+    <definedName name="难易度">OFFSET(Ref!$D$3,0,0,COUNTA(Ref!$D$1:$D$255)-1)</definedName>
+    <definedName name="任务优先级">OFFSET(Ref!$B$3,0,0,COUNTA(Ref!$B$1:$B$255)-1)</definedName>
+    <definedName name="任务状态">OFFSET(Ref!$C$3,0,0,COUNTA(Ref!$C$1:$C$255)-1)</definedName>
+    <definedName name="团队成员">OFFSET(Ref!$A$3,0,0,COUNTA(Ref!$A$1:$A$255)-1)</definedName>
+    <definedName name="完成百分比">OFFSET(Ref!$F$3,0,0,COUNTA(Ref!$F$1:$F$255)-1)</definedName>
+  </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -1882,99 +1891,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2023,6 +1939,36 @@
     <xf numFmtId="0" fontId="34" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2032,35 +1978,98 @@
     <xf numFmtId="0" fontId="34" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2070,7 +2079,7 @@
     <cellStyle name="货币" xfId="3" builtinId="4"/>
     <cellStyle name="着色 1" xfId="2" builtinId="29"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="10">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2081,13 +2090,6 @@
           <bgColor indexed="13"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="23"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2165,306 +2167,9 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF00B050"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="23"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="23"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="23"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4403,9 +4108,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5174,13 +4879,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C21:C38">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>"低"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5193,33 +4898,20 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:D38">
+      <formula1>难易度</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C38">
+      <formula1>任务优先级</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E38">
+      <formula1>团队成员</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Ref!$D$3:$D$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>D21:D38</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Ref!$A$3:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>E21:E38</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Ref!$B$4:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>C21:C38</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5227,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5250,34 +4942,34 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135" t="s">
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="134"/>
-      <c r="H4" s="135" t="s">
+      <c r="G4" s="103"/>
+      <c r="H4" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="133" t="s">
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
     </row>
     <row r="5" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="105" t="s">
         <v>168</v>
       </c>
       <c r="B5" s="95" t="s">
@@ -5292,10 +4984,10 @@
       <c r="E5" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="131" t="s">
+      <c r="F5" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="100" t="s">
         <v>150</v>
       </c>
       <c r="H5" s="95" t="s">
@@ -5310,758 +5002,758 @@
       <c r="K5" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="L5" s="131" t="s">
+      <c r="L5" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="M5" s="131" t="s">
+      <c r="M5" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="N5" s="131" t="s">
+      <c r="N5" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="O5" s="131" t="s">
+      <c r="O5" s="100" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147" t="s">
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="147"/>
-      <c r="F6" s="148" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="151"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="130"/>
     </row>
     <row r="7" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="138">
+      <c r="C7" s="107">
         <v>40854</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="D7" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="E7" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="140" t="s">
+      <c r="F7" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="140" t="s">
+      <c r="G7" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="141" t="s">
+      <c r="H7" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="142">
+      <c r="I7" s="111">
         <v>41153</v>
       </c>
-      <c r="J7" s="143">
+      <c r="J7" s="112">
         <v>1</v>
       </c>
-      <c r="K7" s="139" t="str">
+      <c r="K7" s="108" t="str">
         <f ca="1">IF(I7="","",IF(B7="完成"," - ",I7-TODAY()))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="L7" s="144">
+      <c r="L7" s="113">
         <f>N7*400</f>
         <v>0</v>
       </c>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139" t="s">
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="139" t="s">
+      <c r="C8" s="107"/>
+      <c r="D8" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="H8" s="141" t="s">
+      <c r="H8" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="142">
+      <c r="I8" s="111">
         <v>41739</v>
       </c>
-      <c r="J8" s="143">
+      <c r="J8" s="112">
         <v>0.5</v>
       </c>
-      <c r="K8" s="139">
+      <c r="K8" s="108">
         <f ca="1">IF(I8="","",IF(B8="Completed"," - ",I8-TODAY()))</f>
         <v>-355</v>
       </c>
-      <c r="L8" s="144">
+      <c r="L8" s="113">
         <f t="shared" ref="L8:L29" si="0">N8*400</f>
         <v>2000</v>
       </c>
-      <c r="M8" s="139">
+      <c r="M8" s="108">
         <v>10</v>
       </c>
-      <c r="N8" s="139">
+      <c r="N8" s="108">
         <v>5</v>
       </c>
-      <c r="O8" s="139"/>
+      <c r="O8" s="108"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="139" t="s">
+      <c r="C9" s="107"/>
+      <c r="D9" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="141" t="s">
+      <c r="E9" s="108"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="142">
+      <c r="I9" s="111">
         <v>42099</v>
       </c>
-      <c r="J9" s="143">
-        <v>0</v>
-      </c>
-      <c r="K9" s="139">
+      <c r="J9" s="112">
+        <v>0</v>
+      </c>
+      <c r="K9" s="108">
         <f ca="1">IF(I9="","",IF(B9="Completed"," - ",I9-TODAY()))</f>
         <v>5</v>
       </c>
-      <c r="L9" s="144">
+      <c r="L9" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="139">
+      <c r="M9" s="108">
         <v>10</v>
       </c>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147" t="s">
+      <c r="C10" s="115"/>
+      <c r="D10" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148" t="s">
+      <c r="E10" s="116"/>
+      <c r="F10" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="149" t="s">
+      <c r="G10" s="128" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="151"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="139" t="s">
+      <c r="E11" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="F11" s="140" t="s">
+      <c r="F11" s="109" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="140" t="s">
+      <c r="G11" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="141" t="s">
+      <c r="H11" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="I11" s="142"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="139" t="str">
+      <c r="I11" s="111"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="108" t="str">
         <f ca="1">IF(I11="","",IF(B11="Completed"," - ",I11-TODAY()))</f>
         <v/>
       </c>
-      <c r="L11" s="144">
+      <c r="L11" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139" t="s">
+      <c r="C12" s="107"/>
+      <c r="D12" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140" t="s">
+      <c r="E12" s="108"/>
+      <c r="F12" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="140"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="139" t="str">
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="108" t="str">
         <f ca="1">IF(I12="","",IF(B12="Completed"," - ",I12-TODAY()))</f>
         <v/>
       </c>
-      <c r="L12" s="144">
+      <c r="L12" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139" t="s">
+      <c r="C13" s="107"/>
+      <c r="D13" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="140"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="139" t="str">
+      <c r="G13" s="109"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="108" t="str">
         <f ca="1">IF(I13="","",IF(B13="Completed"," - ",I13-TODAY()))</f>
         <v/>
       </c>
-      <c r="L13" s="144">
+      <c r="L13" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139" t="s">
+      <c r="C14" s="107"/>
+      <c r="D14" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="139" t="str">
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="108" t="str">
         <f ca="1">IF(I14="","",IF(B14="Completed"," - ",I14-TODAY()))</f>
         <v/>
       </c>
-      <c r="L14" s="144">
+      <c r="L14" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="146"/>
-      <c r="D15" s="147" t="s">
+      <c r="C15" s="115"/>
+      <c r="D15" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="147"/>
-      <c r="F15" s="148" t="s">
+      <c r="E15" s="116"/>
+      <c r="F15" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="149" t="s">
+      <c r="G15" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="151"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="130"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="138"/>
-      <c r="D16" s="139" t="s">
+      <c r="C16" s="107"/>
+      <c r="D16" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="139" t="str">
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="108" t="str">
         <f ca="1">IF(I16="","",IF(B16="Completed"," - ",I16-TODAY()))</f>
         <v/>
       </c>
-      <c r="L16" s="144">
+      <c r="L16" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="138"/>
-      <c r="D17" s="139" t="s">
+      <c r="C17" s="107"/>
+      <c r="D17" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="139"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="139" t="str">
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="108" t="str">
         <f ca="1">IF(I17="","",IF(B17="Completed"," - ",I17-TODAY()))</f>
         <v/>
       </c>
-      <c r="L17" s="144">
+      <c r="L17" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139" t="s">
+      <c r="C18" s="107"/>
+      <c r="D18" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="139"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="139" t="str">
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="108" t="str">
         <f ca="1">IF(I18="","",IF(B18="Completed"," - ",I18-TODAY()))</f>
         <v/>
       </c>
-      <c r="L18" s="144">
+      <c r="L18" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139" t="s">
+      <c r="C19" s="107"/>
+      <c r="D19" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="139"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="139" t="str">
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="108" t="str">
         <f ca="1">IF(I19="","",IF(B19="Completed"," - ",I19-TODAY()))</f>
         <v/>
       </c>
-      <c r="L19" s="144">
+      <c r="L19" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="139"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="146"/>
-      <c r="D20" s="147" t="s">
+      <c r="C20" s="115"/>
+      <c r="D20" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="147"/>
-      <c r="F20" s="148" t="s">
+      <c r="E20" s="116"/>
+      <c r="F20" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="149" t="s">
+      <c r="G20" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="151"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="130"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="137" t="s">
+      <c r="A21" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139" t="s">
+      <c r="C21" s="107"/>
+      <c r="D21" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="139" t="str">
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="108" t="str">
         <f ca="1">IF(I21="","",IF(B21="Completed"," - ",I21-TODAY()))</f>
         <v/>
       </c>
-      <c r="L21" s="144">
+      <c r="L21" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="137" t="s">
+      <c r="A22" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="138"/>
-      <c r="D22" s="139" t="s">
+      <c r="C22" s="107"/>
+      <c r="D22" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="139" t="str">
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="108" t="str">
         <f ca="1">IF(I22="","",IF(B22="Completed"," - ",I22-TODAY()))</f>
         <v/>
       </c>
-      <c r="L22" s="144">
+      <c r="L22" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="139"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="137" t="s">
+      <c r="A23" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="137" t="s">
+      <c r="B23" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="138"/>
-      <c r="D23" s="139" t="s">
+      <c r="C23" s="107"/>
+      <c r="D23" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="139"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="139" t="str">
+      <c r="E23" s="108"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="108" t="str">
         <f ca="1">IF(I23="","",IF(B23="Completed"," - ",I23-TODAY()))</f>
         <v/>
       </c>
-      <c r="L23" s="144">
+      <c r="L23" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="139"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="137" t="s">
+      <c r="A24" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="138"/>
-      <c r="D24" s="139" t="s">
+      <c r="C24" s="107"/>
+      <c r="D24" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="139"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="139" t="str">
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="108" t="str">
         <f ca="1">IF(I24="","",IF(B24="Completed"," - ",I24-TODAY()))</f>
         <v/>
       </c>
-      <c r="L24" s="144">
+      <c r="L24" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="145" t="s">
+      <c r="A25" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="147" t="s">
+      <c r="C25" s="115"/>
+      <c r="D25" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="147"/>
-      <c r="F25" s="148" t="s">
+      <c r="E25" s="116"/>
+      <c r="F25" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="149" t="s">
+      <c r="G25" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="151"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
+      <c r="O25" s="130"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139" t="s">
+      <c r="C26" s="107"/>
+      <c r="D26" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="139"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="139" t="str">
+      <c r="E26" s="108"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="108" t="str">
         <f ca="1">IF(I26="","",IF(B26="Completed"," - ",I26-TODAY()))</f>
         <v/>
       </c>
-      <c r="L26" s="144">
+      <c r="L26" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="139"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="137" t="s">
+      <c r="A27" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="138"/>
-      <c r="D27" s="139" t="s">
+      <c r="C27" s="107"/>
+      <c r="D27" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="139"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="139" t="str">
+      <c r="E27" s="108"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="108" t="str">
         <f ca="1">IF(I27="","",IF(B27="Completed"," - ",I27-TODAY()))</f>
         <v/>
       </c>
-      <c r="L27" s="144">
+      <c r="L27" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="139"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="139"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="138"/>
-      <c r="D28" s="139" t="s">
+      <c r="C28" s="107"/>
+      <c r="D28" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="139" t="str">
+      <c r="E28" s="108"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="108" t="str">
         <f ca="1">IF(I28="","",IF(B28="Completed"," - ",I28-TODAY()))</f>
         <v/>
       </c>
-      <c r="L28" s="144">
+      <c r="L28" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="139"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="137" t="s">
+      <c r="A29" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139" t="s">
+      <c r="C29" s="107"/>
+      <c r="D29" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="139"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="139" t="str">
+      <c r="E29" s="108"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="108" t="str">
         <f ca="1">IF(I29="","",IF(B29="Completed"," - ",I29-TODAY()))</f>
         <v/>
       </c>
-      <c r="L29" s="144">
+      <c r="L29" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6073,71 +5765,53 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:B29">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"审批通过"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
       <formula>"待审核"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K14 K7:K9 K16:K19 K21:K24 K26:K29">
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E29">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
       <formula>"低"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A29">
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>AND(NOT(A6=" - "),NOT(A6=""))</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B29">
+      <formula1>任务状态</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A29">
+      <formula1>公告</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D29">
+      <formula1>任务优先级</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J9 J11:J14 J16:J19 J21:J24 J26:J29">
+      <formula1>完成百分比</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E29">
+      <formula1>版本</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Ref!$E$3:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>A6:A29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Ref!$C$3:$C$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:B29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Ref!$B$3:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>D6:D29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Ref!$F$3:$F$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>J7:J9 J11:J14 J16:J19 J21:J24 J26:J29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Ref!$G$3:$G$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>E6:E29</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6145,8 +5819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6206,10 +5880,10 @@
         <v>640</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="102">
+      <c r="H3" s="133">
         <f>SUM(K:K)/2</f>
         <v>640</v>
       </c>
@@ -6229,8 +5903,8 @@
         <v>640</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -6810,10 +6484,10 @@
       <c r="M25" s="23"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="103" t="s">
+      <c r="A26" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="103"/>
+      <c r="B26" s="134"/>
       <c r="C26" s="27"/>
       <c r="D26" s="23">
         <f t="shared" ref="D26:J26" si="4">SUM(D10:D25)</f>
@@ -7417,10 +7091,10 @@
       <c r="M48" s="23"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="103"/>
+      <c r="B49" s="134"/>
       <c r="C49" s="27"/>
       <c r="D49" s="23">
         <f t="shared" ref="D49:J49" si="9">SUM(D33:D48)</f>
@@ -7976,10 +7650,10 @@
       <c r="M71" s="23"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="103" t="s">
+      <c r="A72" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="103"/>
+      <c r="B72" s="134"/>
       <c r="C72" s="27"/>
       <c r="D72" s="23">
         <f t="shared" ref="D72:J72" si="14">SUM(D56:D71)</f>
@@ -8504,10 +8178,10 @@
       <c r="M94" s="23"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="103" t="s">
+      <c r="A95" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="103"/>
+      <c r="B95" s="134"/>
       <c r="C95" s="27"/>
       <c r="D95" s="23">
         <f t="shared" ref="D95:J95" si="19">SUM(D79:D94)</f>
@@ -8560,31 +8234,22 @@
     <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B33:B45">
-      <formula1>$A$3:$A$11</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B56:B59">
-      <formula1>$A$3:$A$11</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B56:B68">
+      <formula1>团队成员</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B79:B81">
       <formula1>$A$3:$A$11</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B33:B45">
+      <formula1>团队成员</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B22">
+      <formula1>团队成员</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Ref!$A$3:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>B10:B22</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8593,7 +8258,7 @@
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8604,60 +8269,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="32" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="122"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="138"/>
     </row>
     <row r="2" spans="1:21" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63"/>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="123"/>
+      <c r="C2" s="139"/>
       <c r="D2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="124" t="s">
+      <c r="E2" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="124" t="s">
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="127" t="s">
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="127" t="s">
+      <c r="T2" s="143" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8704,8 +8369,8 @@
       </c>
       <c r="Q3" s="66"/>
       <c r="R3" s="66"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="144"/>
       <c r="U3" s="34"/>
     </row>
     <row r="4" spans="1:21" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9292,10 +8957,10 @@
       <c r="U18" s="37"/>
     </row>
     <row r="19" spans="1:21" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="129"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="77">
         <f>SUM(B4:B14)*400/10000</f>
         <v>3.2</v>
@@ -9387,10 +9052,10 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:21" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="130" t="s">
+      <c r="A23" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="130"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="74" t="s">
         <v>36</v>
       </c>
@@ -9413,10 +9078,10 @@
       <c r="T23" s="44"/>
     </row>
     <row r="24" spans="1:21" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="130"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="75"/>
       <c r="D24" s="47"/>
       <c r="E24" s="44"/>
@@ -9437,10 +9102,10 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:21" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="130" t="s">
+      <c r="A25" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="130"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="75"/>
       <c r="D25" s="47"/>
       <c r="E25" s="44"/>
@@ -9461,10 +9126,10 @@
       <c r="T25" s="44"/>
     </row>
     <row r="26" spans="1:21" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="130" t="s">
+      <c r="A26" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="130"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="75"/>
       <c r="D26" s="47"/>
       <c r="E26" s="44"/>
@@ -9569,15 +9234,15 @@
       <c r="F30" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="119" t="s">
+      <c r="G30" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="119"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
       <c r="N30" s="44"/>
       <c r="O30" s="44"/>
       <c r="P30" s="44"/>
@@ -9587,42 +9252,42 @@
       <c r="T30" s="44"/>
     </row>
     <row r="31" spans="1:21" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="117" t="s">
+      <c r="A31" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="108">
+      <c r="C31" s="149">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
       <c r="D31" s="52"/>
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
       <c r="S31" s="54"/>
     </row>
     <row r="32" spans="1:21" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="105"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
       <c r="D32" s="57"/>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="111"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
       <c r="N32" s="44"/>
       <c r="O32" s="44"/>
       <c r="P32" s="44"/>
@@ -9632,189 +9297,189 @@
       <c r="T32" s="44"/>
     </row>
     <row r="33" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="105"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
       <c r="D33" s="57"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="151"/>
       <c r="S33" s="54"/>
     </row>
     <row r="34" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="105"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
+      <c r="A34" s="148"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
       <c r="D34" s="57"/>
       <c r="E34" s="59"/>
       <c r="F34" s="59"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="151"/>
       <c r="S34" s="54"/>
     </row>
     <row r="35" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="105"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
+      <c r="A35" s="148"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
       <c r="D35" s="57"/>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="151"/>
+      <c r="M35" s="151"/>
       <c r="S35" s="54"/>
     </row>
     <row r="36" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="105"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
+      <c r="A36" s="148"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
       <c r="D36" s="57"/>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
       <c r="S36" s="54"/>
     </row>
     <row r="37" spans="1:19" s="32" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="105"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="148"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
       <c r="D37" s="55"/>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
       <c r="S37" s="54"/>
     </row>
     <row r="38" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107">
+      <c r="B38" s="156"/>
+      <c r="C38" s="156">
         <f>SUM(F38:F40)</f>
         <v>0</v>
       </c>
       <c r="D38" s="57"/>
       <c r="E38" s="58"/>
       <c r="F38" s="58"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
+      <c r="K38" s="158"/>
+      <c r="L38" s="158"/>
+      <c r="M38" s="158"/>
       <c r="S38" s="54"/>
     </row>
     <row r="39" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="114"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="149"/>
       <c r="D39" s="57"/>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="151"/>
       <c r="S39" s="54"/>
     </row>
     <row r="40" spans="1:19" s="32" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="115"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
       <c r="D40" s="57"/>
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
-      <c r="M40" s="112"/>
+      <c r="G40" s="159"/>
+      <c r="H40" s="159"/>
+      <c r="I40" s="159"/>
+      <c r="J40" s="159"/>
+      <c r="K40" s="159"/>
+      <c r="L40" s="159"/>
+      <c r="M40" s="159"/>
       <c r="S40" s="54"/>
     </row>
     <row r="41" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="104" t="s">
+      <c r="A41" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107">
+      <c r="B41" s="156"/>
+      <c r="C41" s="156">
         <f>SUM(F41:F43)</f>
         <v>0</v>
       </c>
       <c r="D41" s="61"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
       <c r="S41" s="54"/>
     </row>
     <row r="42" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="105"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
+      <c r="A42" s="148"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="56"/>
       <c r="E42" s="59"/>
       <c r="F42" s="59"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="111"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
       <c r="S42" s="54"/>
     </row>
     <row r="43" spans="1:19" s="32" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="106"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
+      <c r="A43" s="161"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
       <c r="F43" s="60"/>
-      <c r="G43" s="112"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="112"/>
-      <c r="K43" s="112"/>
-      <c r="L43" s="112"/>
-      <c r="M43" s="112"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="159"/>
+      <c r="I43" s="159"/>
+      <c r="J43" s="159"/>
+      <c r="K43" s="159"/>
+      <c r="L43" s="159"/>
+      <c r="M43" s="159"/>
       <c r="S43" s="54"/>
     </row>
     <row r="44" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -9824,6 +9489,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="G35:M35"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="G37:M37"/>
     <mergeCell ref="G30:M30"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="B2:C2"/>
@@ -9836,44 +9523,15 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="G32:M32"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="G34:M34"/>
-    <mergeCell ref="G35:M35"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="G43:M43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:R3">
+      <formula1>团队成员</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Ref!$A$3:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:R3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9882,7 +9540,7 @@
   <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9892,25 +9550,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="152" t="s">
+      <c r="C2" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="152" t="s">
+      <c r="E2" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="152" t="s">
+      <c r="F2" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="152" t="s">
+      <c r="G2" s="118" t="s">
         <v>172</v>
       </c>
     </row>
@@ -9921,19 +9579,19 @@
       <c r="B3" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="153" t="s">
+      <c r="C3" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="154" t="s">
+      <c r="D3" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="155" t="s">
+      <c r="E3" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="155" t="s">
+      <c r="F3" s="121" t="s">
         <v>170</v>
       </c>
-      <c r="G3" s="155" t="s">
+      <c r="G3" s="121" t="s">
         <v>173</v>
       </c>
     </row>
@@ -9944,19 +9602,19 @@
       <c r="B4" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="157" t="s">
+      <c r="E4" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="158">
+      <c r="F4" s="124">
         <v>0.1</v>
       </c>
-      <c r="G4" s="158" t="s">
+      <c r="G4" s="124" t="s">
         <v>175</v>
       </c>
     </row>
@@ -9967,19 +9625,19 @@
       <c r="B5" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="157" t="s">
+      <c r="E5" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="158">
+      <c r="F5" s="124">
         <v>0.2</v>
       </c>
-      <c r="G5" s="158" t="s">
+      <c r="G5" s="124" t="s">
         <v>177</v>
       </c>
     </row>
@@ -9990,19 +9648,19 @@
       <c r="B6" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="154" t="s">
+      <c r="D6" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="157" t="s">
+      <c r="E6" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="158">
+      <c r="F6" s="124">
         <v>0.3</v>
       </c>
-      <c r="G6" s="158" t="s">
+      <c r="G6" s="124" t="s">
         <v>178</v>
       </c>
     </row>
@@ -10011,15 +9669,15 @@
         <v>20</v>
       </c>
       <c r="B7" s="83"/>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="159">
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="125">
         <v>0.4</v>
       </c>
-      <c r="G7" s="158" t="s">
+      <c r="G7" s="124" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10028,45 +9686,45 @@
         <v>21</v>
       </c>
       <c r="B8" s="83"/>
-      <c r="C8" s="156" t="s">
+      <c r="C8" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="159">
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="125">
         <v>0.5</v>
       </c>
-      <c r="G8" s="159"/>
+      <c r="G8" s="125"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="83" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="83"/>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="159">
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="125">
         <v>0.6</v>
       </c>
-      <c r="G9" s="159"/>
+      <c r="G9" s="125"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="83" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="83"/>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="159">
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="125">
         <v>0.7</v>
       </c>
-      <c r="G10" s="159"/>
+      <c r="G10" s="125"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="83" t="s">
@@ -10074,34 +9732,34 @@
       </c>
       <c r="B11" s="83"/>
       <c r="C11" s="45"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="159">
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="125">
         <v>0.8</v>
       </c>
-      <c r="G11" s="159"/>
+      <c r="G11" s="125"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="160"/>
-      <c r="B12" s="160"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="159">
+      <c r="A12" s="126"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="125">
         <v>0.9</v>
       </c>
-      <c r="G12" s="159"/>
+      <c r="G12" s="125"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="160"/>
-      <c r="B13" s="160"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="159">
+      <c r="A13" s="126"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="125">
         <v>1</v>
       </c>
-      <c r="G13" s="159"/>
+      <c r="G13" s="125"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>

--- a/模板.xlsx
+++ b/模板.xlsx
@@ -7,11 +7,12 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="TODO" sheetId="4" r:id="rId1"/>
-    <sheet name="Tracking" sheetId="5" r:id="rId2"/>
-    <sheet name="每周工作量统计（上周四~周三）" sheetId="1" r:id="rId3"/>
-    <sheet name="工作量汇总" sheetId="3" r:id="rId4"/>
-    <sheet name="Ref" sheetId="2" r:id="rId5"/>
+    <sheet name="仪表盘" sheetId="6" r:id="rId1"/>
+    <sheet name="待办事项" sheetId="4" r:id="rId2"/>
+    <sheet name="任务跟踪" sheetId="5" r:id="rId3"/>
+    <sheet name="每周工作量统计（上周四~周三）" sheetId="1" r:id="rId4"/>
+    <sheet name="工作量汇总" sheetId="3" r:id="rId5"/>
+    <sheet name="Ref" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="版本">OFFSET(Ref!$G$3,0,0,COUNTA(Ref!$G$1:$G$255)-1)</definedName>
@@ -32,7 +33,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D20" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="182">
   <si>
     <t>项目工作量统计</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -369,10 +370,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>安保综合运营服务平台V1.0_工作量统计表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>统计周期</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -654,10 +651,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>异常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -859,6 +852,22 @@
   <si>
     <t>Phase4</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量统计表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -874,7 +883,7 @@
     <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="181" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,8 +1138,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1190,8 +1206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1513,19 +1535,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="4"/>
       </left>
       <right style="thin">
@@ -1591,6 +1600,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1605,7 +1634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1880,18 +1909,13 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1903,40 +1927,40 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="33" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="33" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="33" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="33" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="33" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyAlignment="1">
@@ -1969,15 +1993,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2071,6 +2104,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal_Sheet1" xfId="1"/>
@@ -2198,17 +2232,387 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>按状态统计</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32997739258306208"/>
+          <c:y val="8.8593546064807231E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23417209212484805"/>
+          <c:x val="0.12093097697666319"/>
+          <c:y val="7.8880139982502193E-2"/>
+          <c:w val="0.78956281979904031"/>
+          <c:h val="0.97704835624360509"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>待办事项!$B$5:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>按时完成</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>超时完成</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>其他</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>待办事项!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>按优先级统计</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28378378378378377"/>
+          <c:y val="1.333332866725156E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1065111706397528E-2"/>
           <c:y val="0"/>
-          <c:w val="0.60092011225869491"/>
-          <c:h val="1"/>
+          <c:w val="0.78579610538373423"/>
+          <c:h val="0.99420289855072463"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -2291,6 +2695,7 @@
                 <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -2320,233 +2725,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>TODO!$B$5:$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>按时完成</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>超时完成</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>其他</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TODO!$B$6:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.29023673511399312"/>
-          <c:y val="0.14734812693867813"/>
-          <c:w val="0.39991868663475888"/>
-          <c:h val="0.74166738248628017"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>TODO!$G$5:$I$5</c:f>
+              <c:f>待办事项!$G$5:$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2563,7 +2742,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TODO!$G$6:$I$6</c:f>
+              <c:f>待办事项!$G$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3754,24 +3933,83 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="16" fmlaLink="$G$2" fmlaRange="版本" noThreeD="1" sel="2" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10241" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10241"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvPr id="2" name="图表 1" title="按状态统计"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3788,20 +4026,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4106,11 +4344,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K38"/>
+  <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="20" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="B13" s="164" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+    </row>
+    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+    </row>
+    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="91">
+        <f>待办事项!A6</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+    </row>
+    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+    </row>
+    <row r="18" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+    </row>
+    <row r="19" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+    </row>
+    <row r="20" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+    </row>
+    <row r="21" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+    </row>
+    <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+    </row>
+    <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="91"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+    </row>
+    <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="91"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+    </row>
+    <row r="29" spans="2:14" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="B29" s="164" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <f>工作量汇总!B15</f>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10241" r:id="rId4" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>571500</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4126,7 +4624,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="29.25" x14ac:dyDescent="0.5">
       <c r="A2" s="84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="85"/>
       <c r="C2" s="4"/>
@@ -4149,93 +4647,99 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="129" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="94" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="95" t="s">
+      <c r="B5" s="125" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="95" t="s">
+      <c r="D5" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="95" t="s">
+      <c r="E5" s="126"/>
+      <c r="F5" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="91"/>
+      <c r="K5" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="H5" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="95" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="96">
-        <f>COUNTA($A$21:$A$38)</f>
+      <c r="A6" s="127">
+        <f>COUNTA($A$9:$A$26)</f>
         <v>3</v>
       </c>
-      <c r="B6" s="96">
-        <f>COUNTIF($B$21:$B$38,"按时完成")</f>
+      <c r="B6" s="127">
+        <f>COUNTIF($B$9:$B$26,"按时完成")</f>
         <v>1</v>
       </c>
-      <c r="C6" s="96">
-        <f>COUNTIF($B$21:$B$38,"超时完成")</f>
+      <c r="C6" s="127">
+        <f>COUNTIF($B$9:$B$26,"超时完成")</f>
         <v>1</v>
       </c>
-      <c r="D6" s="97">
+      <c r="D6" s="128">
         <f>A6-B6-C6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="96">
-        <f>COUNTA($A$21:$A$38)</f>
+      <c r="E6" s="126"/>
+      <c r="F6" s="127">
+        <f>COUNTA($A$9:$A$26)</f>
         <v>3</v>
       </c>
-      <c r="G6" s="96">
-        <f>COUNTIF($C$21:$C$38,"高")</f>
+      <c r="G6" s="127">
+        <f>COUNTIF($C$9:$C$26,"高")</f>
         <v>1</v>
       </c>
-      <c r="H6" s="96">
-        <f>COUNTIF($C$21:$C$38,"中")</f>
+      <c r="H6" s="127">
+        <f>COUNTIF($C$9:$C$26,"中")</f>
         <v>1</v>
       </c>
-      <c r="I6" s="97">
-        <f>COUNTIF($C$21:$C$38,"低")</f>
+      <c r="I6" s="128">
+        <f>COUNTIF($C$9:$C$26,"低")</f>
         <v>1</v>
       </c>
-      <c r="K6" s="96">
-        <f ca="1">COUNTIF(K21:K38,"&lt;0")</f>
-        <v>1</v>
+      <c r="J6" s="91"/>
+      <c r="K6" s="127" t="e">
+        <f>COUNTIF(待办事项!#REF!:'待办事项'!I16,"&lt;0")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -4243,247 +4747,451 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="86" t="s">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="C8" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="D8" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="E8" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+      <c r="A9" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="86" t="s">
+      <c r="B9" s="89" t="str">
+        <f>IF(G9="","-",IF(H9="","未完成",IF(H9&gt;G9,"超时完成","按时完成")))</f>
+        <v>超时完成</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="92">
+        <v>42079</v>
+      </c>
+      <c r="G9" s="92">
+        <v>42096</v>
+      </c>
+      <c r="H9" s="92">
+        <v>42099</v>
+      </c>
+      <c r="I9" s="93">
+        <f>IF(H9="","-",NETWORKDAYS(H9,F9)-1)</f>
+        <v>-16</v>
+      </c>
+      <c r="J9" s="88"/>
+      <c r="K9" s="96" t="str">
+        <f ca="1">IF(B9="未完成",G9-TODAY(),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+      <c r="A10" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="89" t="str">
+        <f t="shared" ref="B10:B26" si="0">IF(G10="","-",IF(H10="","未完成",IF(H10&gt;G10,"超时完成","按时完成")))</f>
+        <v>按时完成</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="92">
+        <v>42096</v>
+      </c>
+      <c r="G10" s="92">
+        <v>42099</v>
+      </c>
+      <c r="H10" s="92">
+        <v>42099</v>
+      </c>
+      <c r="I10" s="93">
+        <f t="shared" ref="I10:I26" si="1">IF(H10="","-",NETWORKDAYS(H10,F10)-1)</f>
+        <v>-3</v>
+      </c>
+      <c r="J10" s="88"/>
+      <c r="K10" s="96" t="str">
+        <f t="shared" ref="K10:K26" ca="1" si="2">IF(B10="未完成",G10-TODAY(),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.15">
+      <c r="A11" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="98" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="33" x14ac:dyDescent="0.15">
-      <c r="A21" s="88" t="s">
-        <v>90</v>
-      </c>
+      <c r="B11" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>未完成</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="92">
+        <v>42078</v>
+      </c>
+      <c r="G11" s="92">
+        <v>42083</v>
+      </c>
+      <c r="H11" s="92"/>
+      <c r="I11" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J11" s="88"/>
+      <c r="K11" s="96">
+        <f t="shared" ca="1" si="2"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="88"/>
+      <c r="B12" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J12" s="88"/>
+      <c r="K12" s="96" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="88"/>
+      <c r="B13" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J13" s="88"/>
+      <c r="K13" s="96" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J14" s="88"/>
+      <c r="K14" s="96" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="88"/>
+      <c r="B15" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J15" s="88"/>
+      <c r="K15" s="96" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="88"/>
+      <c r="B16" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="88"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J16" s="88"/>
+      <c r="K16" s="96" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="88"/>
+      <c r="B17" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="88"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J17" s="88"/>
+      <c r="K17" s="96" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="88"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J18" s="88"/>
+      <c r="K18" s="96" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="88"/>
+      <c r="B19" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J19" s="88"/>
+      <c r="K19" s="96" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="88"/>
+      <c r="B20" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="88"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="J20" s="88"/>
+      <c r="K20" s="96" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="88"/>
       <c r="B21" s="89" t="str">
-        <f>IF(G21="","-",IF(H21="","未完成",IF(H21&gt;G21,"超时完成","按时完成")))</f>
-        <v>超时完成</v>
+        <f t="shared" si="0"/>
+        <v>-</v>
       </c>
       <c r="C21" s="90" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D21" s="88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="88"/>
-      <c r="F21" s="92">
-        <v>42079</v>
-      </c>
-      <c r="G21" s="92">
-        <v>42096</v>
-      </c>
-      <c r="H21" s="92">
-        <v>42099</v>
-      </c>
-      <c r="I21" s="93">
-        <f>IF(H21="","-",NETWORKDAYS(H21,F21)-1)</f>
-        <v>-16</v>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="J21" s="88"/>
-      <c r="K21" s="99" t="str">
-        <f ca="1">IF(B21="未完成",G21-TODAY(),"-")</f>
+      <c r="K21" s="96" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="88" t="s">
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="88"/>
+      <c r="B22" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="C22" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="89" t="str">
-        <f t="shared" ref="B22:B38" si="0">IF(G22="","-",IF(H22="","未完成",IF(H22&gt;G22,"超时完成","按时完成")))</f>
-        <v>按时完成</v>
-      </c>
-      <c r="C22" s="90" t="s">
-        <v>78</v>
-      </c>
       <c r="D22" s="88" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E22" s="88"/>
-      <c r="F22" s="92">
-        <v>42096</v>
-      </c>
-      <c r="G22" s="92">
-        <v>42099</v>
-      </c>
-      <c r="H22" s="92">
-        <v>42099</v>
-      </c>
-      <c r="I22" s="93">
-        <f t="shared" ref="I22:I38" si="1">IF(H22="","-",NETWORKDAYS(H22,F22)-1)</f>
-        <v>-3</v>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
       </c>
       <c r="J22" s="88"/>
-      <c r="K22" s="99" t="str">
-        <f t="shared" ref="K22:K38" ca="1" si="2">IF(B22="未完成",G22-TODAY(),"-")</f>
+      <c r="K22" s="96" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.15">
-      <c r="A23" s="88" t="s">
-        <v>115</v>
-      </c>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="88"/>
       <c r="B23" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>未完成</v>
+        <v>-</v>
       </c>
       <c r="C23" s="90" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D23" s="88" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E23" s="88"/>
-      <c r="F23" s="92">
-        <v>42078</v>
-      </c>
-      <c r="G23" s="92">
-        <v>42083</v>
-      </c>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="92"/>
       <c r="I23" s="93" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="J23" s="88"/>
-      <c r="K23" s="99">
+      <c r="K23" s="96" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>-11</v>
+        <v>-</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
@@ -4493,10 +5201,10 @@
         <v>-</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="88"/>
       <c r="F24" s="92"/>
@@ -4507,7 +5215,7 @@
         <v>-</v>
       </c>
       <c r="J24" s="88"/>
-      <c r="K24" s="99" t="str">
+      <c r="K24" s="96" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
@@ -4519,10 +5227,10 @@
         <v>-</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="88"/>
       <c r="F25" s="92"/>
@@ -4533,7 +5241,7 @@
         <v>-</v>
       </c>
       <c r="J25" s="88"/>
-      <c r="K25" s="99" t="str">
+      <c r="K25" s="96" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
@@ -4545,10 +5253,10 @@
         <v>-</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="88"/>
       <c r="F26" s="92"/>
@@ -4559,326 +5267,14 @@
         <v>-</v>
       </c>
       <c r="J26" s="88"/>
-      <c r="K26" s="99" t="str">
+      <c r="K26" s="96" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="88"/>
-      <c r="B27" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="C27" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J27" s="88"/>
-      <c r="K27" s="99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="88"/>
-      <c r="B28" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="C28" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J28" s="88"/>
-      <c r="K28" s="99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="88"/>
-      <c r="B29" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="C29" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J29" s="88"/>
-      <c r="K29" s="99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="88"/>
-      <c r="B30" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J30" s="88"/>
-      <c r="K30" s="99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="88"/>
-      <c r="B31" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="C31" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J31" s="88"/>
-      <c r="K31" s="99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="88"/>
-      <c r="B32" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="C32" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="88"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J32" s="88"/>
-      <c r="K32" s="99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="88"/>
-      <c r="B33" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="C33" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="88"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J33" s="88"/>
-      <c r="K33" s="99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="88"/>
-      <c r="B34" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="C34" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="88"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J34" s="88"/>
-      <c r="K34" s="99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="88"/>
-      <c r="B35" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="C35" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="88"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J35" s="88"/>
-      <c r="K35" s="99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="88"/>
-      <c r="B36" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="C36" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J36" s="88"/>
-      <c r="K36" s="99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="88"/>
-      <c r="B37" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="C37" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J37" s="88"/>
-      <c r="K37" s="99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="88"/>
-      <c r="B38" s="89" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="C38" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="93" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="J38" s="88"/>
-      <c r="K38" s="99" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C21:C38">
+  <conditionalFormatting sqref="C9:C26">
     <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
@@ -4889,7 +5285,7 @@
       <formula>"低"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:K38">
+  <conditionalFormatting sqref="K9:K26">
     <cfRule type="iconSet" priority="1">
       <iconSet>
         <cfvo type="percent" val="0"/>
@@ -4899,28 +5295,27 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:D38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D26">
       <formula1>难易度</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C26">
       <formula1>任务优先级</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E26">
       <formula1>团队成员</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4938,822 +5333,822 @@
   <sheetData>
     <row r="2" spans="1:15" ht="29.25" x14ac:dyDescent="0.5">
       <c r="A2" s="84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="100"/>
+      <c r="H4" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+    </row>
+    <row r="5" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="94" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="101" t="s">
+      <c r="D5" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104" t="s">
+      <c r="J5" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="N5" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="O5" s="97" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="112"/>
+      <c r="D6" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="113"/>
+      <c r="F6" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="102" t="s">
+      <c r="G6" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-    </row>
-    <row r="5" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="100" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="M5" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="N5" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="O5" s="100" t="s">
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="132"/>
+    </row>
+    <row r="7" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="103" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="117" t="s">
+      <c r="C7" s="104">
+        <v>40854</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="128" t="s">
+      <c r="G7" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="130"/>
-    </row>
-    <row r="7" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="107">
-        <v>40854</v>
-      </c>
-      <c r="D7" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="108" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="109" t="s">
+      <c r="H7" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="110" t="s">
-        <v>133</v>
-      </c>
-      <c r="I7" s="111">
+      <c r="I7" s="108">
         <v>41153</v>
       </c>
-      <c r="J7" s="112">
+      <c r="J7" s="109">
         <v>1</v>
       </c>
-      <c r="K7" s="108" t="str">
+      <c r="K7" s="105" t="str">
         <f ca="1">IF(I7="","",IF(B7="完成"," - ",I7-TODAY()))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="L7" s="113">
+      <c r="L7" s="110">
         <f>N7*400</f>
         <v>0</v>
       </c>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108" t="s">
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="107" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="108" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="109" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="111">
+      <c r="I8" s="108">
         <v>41739</v>
       </c>
-      <c r="J8" s="112">
+      <c r="J8" s="109">
         <v>0.5</v>
       </c>
-      <c r="K8" s="108">
+      <c r="K8" s="105">
         <f ca="1">IF(I8="","",IF(B8="Completed"," - ",I8-TODAY()))</f>
         <v>-355</v>
       </c>
-      <c r="L8" s="113">
+      <c r="L8" s="110">
         <f t="shared" ref="L8:L29" si="0">N8*400</f>
         <v>2000</v>
       </c>
-      <c r="M8" s="108">
+      <c r="M8" s="105">
         <v>10</v>
       </c>
-      <c r="N8" s="108">
+      <c r="N8" s="105">
         <v>5</v>
       </c>
-      <c r="O8" s="108"/>
+      <c r="O8" s="105"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="110" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="111">
+      <c r="A9" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="105"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="108">
         <v>42099</v>
       </c>
-      <c r="J9" s="112">
-        <v>0</v>
-      </c>
-      <c r="K9" s="108">
+      <c r="J9" s="109">
+        <v>0</v>
+      </c>
+      <c r="K9" s="105">
         <f ca="1">IF(I9="","",IF(B9="Completed"," - ",I9-TODAY()))</f>
         <v>5</v>
       </c>
-      <c r="L9" s="113">
+      <c r="L9" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="108">
+      <c r="M9" s="105">
         <v>10</v>
       </c>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="117" t="s">
+      <c r="A10" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="112"/>
+      <c r="D10" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="132"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="128" t="s">
+      <c r="G11" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="130"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="108" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="109" t="s">
+      <c r="H11" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="108" t="str">
+      <c r="I11" s="108"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="105" t="str">
         <f ca="1">IF(I11="","",IF(B11="Completed"," - ",I11-TODAY()))</f>
         <v/>
       </c>
-      <c r="L11" s="113">
+      <c r="L11" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="108" t="str">
+      <c r="A12" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="105"/>
+      <c r="F12" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="106"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="105" t="str">
         <f ca="1">IF(I12="","",IF(B12="Completed"," - ",I12-TODAY()))</f>
         <v/>
       </c>
-      <c r="L12" s="113">
+      <c r="L12" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="108" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="109" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="108" t="str">
+      <c r="A13" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="106"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="105" t="str">
         <f ca="1">IF(I13="","",IF(B13="Completed"," - ",I13-TODAY()))</f>
         <v/>
       </c>
-      <c r="L13" s="113">
+      <c r="L13" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="108" t="str">
+      <c r="A14" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="105" t="str">
         <f ca="1">IF(I14="","",IF(B14="Completed"," - ",I14-TODAY()))</f>
         <v/>
       </c>
-      <c r="L14" s="113">
+      <c r="L14" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="128" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="130"/>
+      <c r="A15" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="130" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="132"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="108" t="str">
+      <c r="A16" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="105"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="105" t="str">
         <f ca="1">IF(I16="","",IF(B16="Completed"," - ",I16-TODAY()))</f>
         <v/>
       </c>
-      <c r="L16" s="113">
+      <c r="L16" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="108" t="str">
+      <c r="A17" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="105" t="str">
         <f ca="1">IF(I17="","",IF(B17="Completed"," - ",I17-TODAY()))</f>
         <v/>
       </c>
-      <c r="L17" s="113">
+      <c r="L17" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="108" t="str">
+      <c r="A18" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="104"/>
+      <c r="D18" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="105"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="105" t="str">
         <f ca="1">IF(I18="","",IF(B18="Completed"," - ",I18-TODAY()))</f>
         <v/>
       </c>
-      <c r="L18" s="113">
+      <c r="L18" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="107"/>
-      <c r="D19" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="108" t="str">
+      <c r="A19" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="105" t="str">
         <f ca="1">IF(I19="","",IF(B19="Completed"," - ",I19-TODAY()))</f>
         <v/>
       </c>
-      <c r="L19" s="113">
+      <c r="L19" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="128" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="130"/>
+      <c r="A20" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="113"/>
+      <c r="F20" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="130" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="132"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="108" t="str">
+      <c r="A21" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="105" t="str">
         <f ca="1">IF(I21="","",IF(B21="Completed"," - ",I21-TODAY()))</f>
         <v/>
       </c>
-      <c r="L21" s="113">
+      <c r="L21" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="108" t="str">
+      <c r="A22" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="105" t="str">
         <f ca="1">IF(I22="","",IF(B22="Completed"," - ",I22-TODAY()))</f>
         <v/>
       </c>
-      <c r="L22" s="113">
+      <c r="L22" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="108" t="str">
+      <c r="A23" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="105"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="105" t="str">
         <f ca="1">IF(I23="","",IF(B23="Completed"," - ",I23-TODAY()))</f>
         <v/>
       </c>
-      <c r="L23" s="113">
+      <c r="L23" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="107"/>
-      <c r="D24" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="108" t="str">
+      <c r="A24" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="105"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="105" t="str">
         <f ca="1">IF(I24="","",IF(B24="Completed"," - ",I24-TODAY()))</f>
         <v/>
       </c>
-      <c r="L24" s="113">
+      <c r="L24" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="116"/>
-      <c r="F25" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="128" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
-      <c r="O25" s="130"/>
+      <c r="A25" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="112"/>
+      <c r="D25" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="130" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="132"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="108" t="str">
+      <c r="A26" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="105" t="str">
         <f ca="1">IF(I26="","",IF(B26="Completed"," - ",I26-TODAY()))</f>
         <v/>
       </c>
-      <c r="L26" s="113">
+      <c r="L26" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="108"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="108"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="108"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="108" t="str">
+      <c r="A27" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="104"/>
+      <c r="D27" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="105"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="105" t="str">
         <f ca="1">IF(I27="","",IF(B27="Completed"," - ",I27-TODAY()))</f>
         <v/>
       </c>
-      <c r="L27" s="113">
+      <c r="L27" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="108"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="108" t="str">
+      <c r="A28" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="105"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="105" t="str">
         <f ca="1">IF(I28="","",IF(B28="Completed"," - ",I28-TODAY()))</f>
         <v/>
       </c>
-      <c r="L28" s="113">
+      <c r="L28" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="108" t="str">
+      <c r="A29" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="105"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="105" t="str">
         <f ca="1">IF(I29="","",IF(B29="Completed"," - ",I29-TODAY()))</f>
         <v/>
       </c>
-      <c r="L29" s="113">
+      <c r="L29" s="110">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5815,12 +6210,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5880,10 +6275,10 @@
         <v>640</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="133">
+      <c r="H3" s="135">
         <f>SUM(K:K)/2</f>
         <v>640</v>
       </c>
@@ -5903,8 +6298,8 @@
         <v>640</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -6484,10 +6879,10 @@
       <c r="M25" s="23"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="134" t="s">
+      <c r="A26" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="134"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="27"/>
       <c r="D26" s="23">
         <f t="shared" ref="D26:J26" si="4">SUM(D10:D25)</f>
@@ -7091,10 +7486,10 @@
       <c r="M48" s="23"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="134" t="s">
+      <c r="A49" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="134"/>
+      <c r="B49" s="136"/>
       <c r="C49" s="27"/>
       <c r="D49" s="23">
         <f t="shared" ref="D49:J49" si="9">SUM(D33:D48)</f>
@@ -7650,10 +8045,10 @@
       <c r="M71" s="23"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="134" t="s">
+      <c r="A72" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="134"/>
+      <c r="B72" s="136"/>
       <c r="C72" s="27"/>
       <c r="D72" s="23">
         <f t="shared" ref="D72:J72" si="14">SUM(D56:D71)</f>
@@ -8178,10 +8573,10 @@
       <c r="M94" s="23"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="134" t="s">
+      <c r="A95" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="134"/>
+      <c r="B95" s="136"/>
       <c r="C95" s="27"/>
       <c r="D95" s="23">
         <f t="shared" ref="D95:J95" si="19">SUM(D79:D94)</f>
@@ -8253,12 +8648,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8269,108 +8664,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="32" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="136" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="138"/>
+      <c r="A1" s="138" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="140"/>
     </row>
     <row r="2" spans="1:21" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="63"/>
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="141"/>
+      <c r="D2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="63" t="s">
+      <c r="E2" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="140" t="s">
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="140" t="s">
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="143" t="s">
+      <c r="T2" s="145" t="s">
         <v>54</v>
-      </c>
-      <c r="T2" s="143" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="35" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="C3" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="E3" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="F3" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="G3" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="H3" s="66" t="s">
         <v>62</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>63</v>
       </c>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
       <c r="K3" s="66"/>
       <c r="L3" s="66"/>
       <c r="M3" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="O3" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="66" t="s">
+      <c r="P3" s="66" t="s">
         <v>66</v>
-      </c>
-      <c r="P3" s="66" t="s">
-        <v>67</v>
       </c>
       <c r="Q3" s="66"/>
       <c r="R3" s="66"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
       <c r="U3" s="34"/>
     </row>
     <row r="4" spans="1:21" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8383,7 +8778,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="69">
         <v>0</v>
@@ -8432,7 +8827,7 @@
         <v>27.5</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="69">
         <v>0</v>
@@ -8466,7 +8861,7 @@
       <c r="Q5" s="69"/>
       <c r="R5" s="69"/>
       <c r="S5" s="70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T5" s="59"/>
       <c r="U5" s="36"/>
@@ -8517,7 +8912,7 @@
       <c r="Q6" s="59"/>
       <c r="R6" s="59"/>
       <c r="S6" s="70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T6" s="59"/>
       <c r="U6" s="36"/>
@@ -8542,7 +8937,7 @@
       <c r="Q7" s="59"/>
       <c r="R7" s="59"/>
       <c r="S7" s="70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T7" s="59"/>
       <c r="U7" s="36"/>
@@ -8567,7 +8962,7 @@
       <c r="Q8" s="71"/>
       <c r="R8" s="71"/>
       <c r="S8" s="72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T8" s="59"/>
       <c r="U8" s="36"/>
@@ -8592,7 +8987,7 @@
       <c r="Q9" s="73"/>
       <c r="R9" s="73"/>
       <c r="S9" s="72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T9" s="59"/>
       <c r="U9" s="36"/>
@@ -8617,7 +9012,7 @@
       <c r="Q10" s="73"/>
       <c r="R10" s="69"/>
       <c r="S10" s="72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T10" s="59"/>
       <c r="U10" s="36"/>
@@ -8642,7 +9037,7 @@
       <c r="Q11" s="73"/>
       <c r="R11" s="73"/>
       <c r="S11" s="72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T11" s="59"/>
       <c r="U11" s="36"/>
@@ -8667,7 +9062,7 @@
       <c r="Q12" s="73"/>
       <c r="R12" s="73"/>
       <c r="S12" s="72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T12" s="59"/>
       <c r="U12" s="36"/>
@@ -8720,7 +9115,7 @@
     </row>
     <row r="15" spans="1:21" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="67">
         <f>SUM(B4:B14)</f>
@@ -8793,7 +9188,7 @@
     </row>
     <row r="16" spans="1:21" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
@@ -8863,7 +9258,7 @@
     </row>
     <row r="17" spans="1:21" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="78">
         <v>0</v>
@@ -8957,10 +9352,10 @@
       <c r="U18" s="37"/>
     </row>
     <row r="19" spans="1:21" s="32" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="145" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="145"/>
+      <c r="A19" s="147" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="147"/>
       <c r="C19" s="77">
         <f>SUM(B4:B14)*400/10000</f>
         <v>3.2</v>
@@ -9052,10 +9447,10 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:21" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="146"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="74" t="s">
         <v>36</v>
       </c>
@@ -9078,10 +9473,10 @@
       <c r="T23" s="44"/>
     </row>
     <row r="24" spans="1:21" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="146"/>
+      <c r="B24" s="148"/>
       <c r="C24" s="75"/>
       <c r="D24" s="47"/>
       <c r="E24" s="44"/>
@@ -9102,10 +9497,10 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:21" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="146"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="75"/>
       <c r="D25" s="47"/>
       <c r="E25" s="44"/>
@@ -9126,10 +9521,10 @@
       <c r="T25" s="44"/>
     </row>
     <row r="26" spans="1:21" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="146" t="s">
+      <c r="A26" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="146"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="75"/>
       <c r="D26" s="47"/>
       <c r="E26" s="44"/>
@@ -9234,15 +9629,15 @@
       <c r="F30" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="135" t="s">
+      <c r="G30" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
       <c r="N30" s="44"/>
       <c r="O30" s="44"/>
       <c r="P30" s="44"/>
@@ -9252,42 +9647,42 @@
       <c r="T30" s="44"/>
     </row>
     <row r="31" spans="1:21" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="149" t="s">
+      <c r="B31" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="149">
+      <c r="C31" s="151">
         <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
       <c r="D31" s="52"/>
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
       <c r="S31" s="54"/>
     </row>
     <row r="32" spans="1:21" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="148"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
       <c r="D32" s="57"/>
       <c r="E32" s="59"/>
       <c r="F32" s="59"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
       <c r="N32" s="44"/>
       <c r="O32" s="44"/>
       <c r="P32" s="44"/>
@@ -9297,189 +9692,189 @@
       <c r="T32" s="44"/>
     </row>
     <row r="33" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="148"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
       <c r="D33" s="57"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
       <c r="S33" s="54"/>
     </row>
     <row r="34" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="148"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
+      <c r="A34" s="150"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
       <c r="D34" s="57"/>
       <c r="E34" s="59"/>
       <c r="F34" s="59"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
       <c r="S34" s="54"/>
     </row>
     <row r="35" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="148"/>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
+      <c r="A35" s="150"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="151"/>
       <c r="D35" s="57"/>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
       <c r="S35" s="54"/>
     </row>
     <row r="36" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="148"/>
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
+      <c r="A36" s="150"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
       <c r="D36" s="57"/>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
       <c r="S36" s="54"/>
     </row>
     <row r="37" spans="1:19" s="32" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="148"/>
-      <c r="B37" s="149"/>
-      <c r="C37" s="149"/>
+      <c r="A37" s="150"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
       <c r="D37" s="55"/>
       <c r="E37" s="56"/>
       <c r="F37" s="56"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
       <c r="S37" s="54"/>
     </row>
     <row r="38" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="153" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156">
+      <c r="A38" s="155" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158">
         <f>SUM(F38:F40)</f>
         <v>0</v>
       </c>
       <c r="D38" s="57"/>
       <c r="E38" s="58"/>
       <c r="F38" s="58"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
-      <c r="M38" s="158"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="160"/>
+      <c r="L38" s="160"/>
+      <c r="M38" s="160"/>
       <c r="S38" s="54"/>
     </row>
     <row r="39" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="154"/>
-      <c r="B39" s="149"/>
-      <c r="C39" s="149"/>
+      <c r="A39" s="156"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
       <c r="D39" s="57"/>
       <c r="E39" s="59"/>
       <c r="F39" s="59"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
       <c r="S39" s="54"/>
     </row>
     <row r="40" spans="1:19" s="32" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="155"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
+      <c r="A40" s="157"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
       <c r="D40" s="57"/>
       <c r="E40" s="60"/>
       <c r="F40" s="60"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="159"/>
-      <c r="I40" s="159"/>
-      <c r="J40" s="159"/>
-      <c r="K40" s="159"/>
-      <c r="L40" s="159"/>
-      <c r="M40" s="159"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="161"/>
+      <c r="M40" s="161"/>
       <c r="S40" s="54"/>
     </row>
     <row r="41" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="160" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156">
+      <c r="A41" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="158"/>
+      <c r="C41" s="158">
         <f>SUM(F41:F43)</f>
         <v>0</v>
       </c>
       <c r="D41" s="61"/>
       <c r="E41" s="58"/>
       <c r="F41" s="58"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="152"/>
+      <c r="M41" s="152"/>
       <c r="S41" s="54"/>
     </row>
     <row r="42" spans="1:19" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="148"/>
-      <c r="B42" s="149"/>
-      <c r="C42" s="149"/>
+      <c r="A42" s="150"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
       <c r="D42" s="56"/>
       <c r="E42" s="59"/>
       <c r="F42" s="59"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="153"/>
       <c r="S42" s="54"/>
     </row>
     <row r="43" spans="1:19" s="32" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="161"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="157"/>
+      <c r="A43" s="163"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="159"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
       <c r="F43" s="60"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="159"/>
-      <c r="I43" s="159"/>
-      <c r="J43" s="159"/>
-      <c r="K43" s="159"/>
-      <c r="L43" s="159"/>
-      <c r="M43" s="159"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="161"/>
+      <c r="M43" s="161"/>
       <c r="S43" s="54"/>
     </row>
     <row r="44" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.15">
@@ -9535,7 +9930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G24"/>
   <sheetViews>
@@ -9550,49 +9945,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="118" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="118" t="s">
+      <c r="B2" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="118" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="118" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="118" t="s">
-        <v>172</v>
+      <c r="D2" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="115" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="121" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="121" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="121" t="s">
-        <v>173</v>
+        <v>157</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="118" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="118" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -9600,22 +9995,22 @@
         <v>17</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="122" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="120" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="124">
+        <v>82</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="120" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="121">
         <v>0.1</v>
       </c>
-      <c r="G4" s="124" t="s">
-        <v>175</v>
+      <c r="G4" s="121" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -9623,22 +10018,22 @@
         <v>18</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="122" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="123" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="124">
+        <v>78</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="121">
         <v>0.2</v>
       </c>
-      <c r="G5" s="124" t="s">
-        <v>177</v>
+      <c r="G5" s="121" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -9646,22 +10041,22 @@
         <v>19</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="122" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="123" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="124">
+        <v>80</v>
+      </c>
+      <c r="C6" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="121">
         <v>0.3</v>
       </c>
-      <c r="G6" s="124" t="s">
-        <v>178</v>
+      <c r="G6" s="121" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -9669,16 +10064,16 @@
         <v>20</v>
       </c>
       <c r="B7" s="83"/>
-      <c r="C7" s="122" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="125">
+      <c r="C7" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="122">
         <v>0.4</v>
       </c>
-      <c r="G7" s="124" t="s">
-        <v>179</v>
+      <c r="G7" s="121" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -9686,45 +10081,45 @@
         <v>21</v>
       </c>
       <c r="B8" s="83"/>
-      <c r="C8" s="122" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="125">
+      <c r="C8" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="122">
         <v>0.5</v>
       </c>
-      <c r="G8" s="125"/>
+      <c r="G8" s="122"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="83" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="83"/>
-      <c r="C9" s="122" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="125">
+      <c r="C9" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="122">
         <v>0.6</v>
       </c>
-      <c r="G9" s="125"/>
+      <c r="G9" s="122"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="83" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="83"/>
-      <c r="C10" s="122" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="125">
+      <c r="C10" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="122">
         <v>0.7</v>
       </c>
-      <c r="G10" s="125"/>
+      <c r="G10" s="122"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="83" t="s">
@@ -9732,34 +10127,34 @@
       </c>
       <c r="B11" s="83"/>
       <c r="C11" s="45"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="125">
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="122">
         <v>0.8</v>
       </c>
-      <c r="G11" s="125"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="126"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="125">
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="122">
         <v>0.9</v>
       </c>
-      <c r="G12" s="125"/>
+      <c r="G12" s="122"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="126"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="125">
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="122">
         <v>1</v>
       </c>
-      <c r="G13" s="125"/>
+      <c r="G13" s="122"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
